--- a/src/main/resources/report/Muon_Tamplate.xlsx
+++ b/src/main/resources/report/Muon_Tamplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\JAVA\GIT\QLVK\src\main\resources\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC9399C-4725-46C1-8F17-49338304B0B6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92375DD3-F92F-422A-91EC-9DA10D42AE55}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8160" yWindow="1875" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>CÔNG AN TỈNH TUYÊN QUANG</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>BIỂU TỔNG HỢP BÁO CÁO QUẢN LÝ MƯỢN VŨ KHÍ QUÂN DỤNG, CÔNG CỤ HỖ TRỢ</t>
-  </si>
-  <si>
-    <t>Từ &lt;ngày bắt đầu&gt; đến &lt;ngày kết thúc&gt;</t>
   </si>
   <si>
     <t>STT</t>
@@ -179,29 +176,29 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -676,30 +673,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="8" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
@@ -711,20 +708,18 @@
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
-        <v>8</v>
-      </c>
+      <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
@@ -736,19 +731,19 @@
     <row r="7" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:7" s="5" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="C8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="E8" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>4</v>
@@ -768,11 +763,11 @@
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
@@ -808,13 +803,13 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
@@ -847,16 +842,16 @@
     <row r="168" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A4:G4"/>
     <mergeCell ref="E10:G10"/>
     <mergeCell ref="E15:G15"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="A5:G5"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A4:G4"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.25" top="0.25" bottom="0.5" header="0.5" footer="0.5"/>
